--- a/Ships/Script/Shuttle_OPS3/LOGS/trajplots_calibration/trajplot_calib.xlsx
+++ b/Ships/Script/Shuttle_OPS3/LOGS/trajplots_calibration/trajplot_calib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steam\steamapps\common\Kerbal Space Program - 1.12.3\Ships\Script\Shuttle_OPS3\LOGS\trajplots_calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DAC987-08FB-4541-8BC9-AA10DD40431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6731E57-687B-434B-B334-484DCEAABD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{792CC85A-4CC0-4767-9CB0-4E41D3AA1640}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="21000" activeTab="4" xr2:uid="{792CC85A-4CC0-4767-9CB0-4E41D3AA1640}"/>
   </bookViews>
   <sheets>
     <sheet name="traj1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +138,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +244,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A52954-191A-4273-BA93-AEEE9892E112}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248E8330-1F60-4E7D-BF9C-4C4DA1C86316}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +732,90 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>905</v>
+      </c>
+      <c r="B2">
+        <v>216</v>
+      </c>
+      <c r="C2">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1109</v>
+      </c>
+      <c r="B3">
+        <v>302</v>
+      </c>
+      <c r="C3">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1316</v>
+      </c>
+      <c r="B4">
+        <v>375</v>
+      </c>
+      <c r="C4">
+        <v>278</v>
+      </c>
+      <c r="D4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1523</v>
+      </c>
+      <c r="B5">
+        <v>427</v>
+      </c>
+      <c r="C5">
+        <v>337</v>
+      </c>
+      <c r="D5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1729</v>
+      </c>
+      <c r="B6">
+        <v>462</v>
+      </c>
+      <c r="C6">
+        <v>376</v>
+      </c>
+      <c r="D6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1892</v>
+      </c>
+      <c r="B7">
+        <v>483</v>
+      </c>
+      <c r="C7">
+        <v>406</v>
+      </c>
+      <c r="D7">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
